--- a/biology/Médecine/Plafond_de_ressources_de_la_CMU-C/Plafond_de_ressources_de_la_CMU-C.xlsx
+++ b/biology/Médecine/Plafond_de_ressources_de_la_CMU-C/Plafond_de_ressources_de_la_CMU-C.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le plafond de ressources de la CMU-C est, en France, le montant que les ressources d'une personne ne doivent pas dépasser pour qu'elle puisse bénéficier de la protection complémentaire de la couverture maladie universelle. Il est défini par l'article L. 861-1 du code de la sécurité sociale[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le plafond de ressources de la CMU-C est, en France, le montant que les ressources d'une personne ne doivent pas dépasser pour qu'elle puisse bénéficier de la protection complémentaire de la couverture maladie universelle. Il est défini par l'article L. 861-1 du code de la sécurité sociale.
 Il est également utilisé pour l'attribution d'autres prestations sociales, telles que le tarif de première nécessité ou l'aide médicale d'État.
 </t>
         </is>
@@ -512,10 +524,12 @@
           <t>Montant du plafond</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le montant de ce plafond est fixé par l'article D. 861-1 du code de la sécurité sociale[2].
-Il est révisé chaque année par décret pour tenir compte de la hausse des prix. La loi de finances pour 2003[3] a prévu que cette révision ait lieu le 1er juillet et a précisé ses modalités. La loi de financement de la sécurité sociale pour 2007 a précisé de quelle manière le montant du plafond est arrondi[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le montant de ce plafond est fixé par l'article D. 861-1 du code de la sécurité sociale.
+Il est révisé chaque année par décret pour tenir compte de la hausse des prix. La loi de finances pour 2003 a prévu que cette révision ait lieu le 1er juillet et a précisé ses modalités. La loi de financement de la sécurité sociale pour 2007 a précisé de quelle manière le montant du plafond est arrondi.
 Pour une personne seule, il a ainsi été de :
 </t>
         </is>
@@ -545,10 +559,12 @@
           <t>Majoration</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce plafond varie selon la composition du foyer et le nombre de personnes à charge ; l'article R. 861-2 du code de la sécurité sociale définit le foyer et l'article R. 861-3 prévoit de quelle manière le plafond est majoré[25].
-Depuis le 1er septembre 2003[26], il est également majoré dans les départements mentionnés à l'article L. 751-1 du code de la sécurité sociale[27], c'est-à-dire les départements d'outre-mer, où les prix sont plus élevés qu'en métropole. Cette majoration s'est élevée à 10,8 % jusqu'au 1er juillet 2007[12], avant de passer à 11,3 %.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce plafond varie selon la composition du foyer et le nombre de personnes à charge ; l'article R. 861-2 du code de la sécurité sociale définit le foyer et l'article R. 861-3 prévoit de quelle manière le plafond est majoré.
+Depuis le 1er septembre 2003, il est également majoré dans les départements mentionnés à l'article L. 751-1 du code de la sécurité sociale, c'est-à-dire les départements d'outre-mer, où les prix sont plus élevés qu'en métropole. Cette majoration s'est élevée à 10,8 % jusqu'au 1er juillet 2007, avant de passer à 11,3 %.
 </t>
         </is>
       </c>
@@ -577,9 +593,11 @@
           <t>Ressources prises en compte</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les ressources prises en compte sont définies par les articles R. 861-4 à R. 861-10 du code de la sécurité sociale[25].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les ressources prises en compte sont définies par les articles R. 861-4 à R. 861-10 du code de la sécurité sociale.
 </t>
         </is>
       </c>
